--- a/Labs/Lab01-Validation/Lab1-Rubric-Validation.xlsx
+++ b/Labs/Lab01-Validation/Lab1-Rubric-Validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab01-Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32032FE0-EEF6-41F9-981F-DB75874E7C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4A67D5-CA6E-4611-B6EA-EE264EFE0C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11580" yWindow="5364" windowWidth="11208" windowHeight="10632" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32736" yWindow="4908" windowWidth="11688" windowHeight="10992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>CS296N Lab 1 Rubric</t>
   </si>
@@ -95,19 +95,13 @@
   </si>
   <si>
     <t>Validation is shown in the views for each validated model property.</t>
-  </si>
-  <si>
-    <t>Only two types used</t>
-  </si>
-  <si>
-    <t>Quiz view doesn't show validation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -537,7 +531,7 @@
     </xf>
     <xf numFmtId="1" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,32 +888,32 @@
       <selection activeCell="A4" sqref="A4:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
@@ -930,14 +924,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
     </row>
-    <row r="6" spans="1:3" ht="26.4">
+    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
@@ -948,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
@@ -959,19 +953,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
@@ -982,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>7</v>
       </c>
@@ -993,7 +987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.4">
+    <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>20</v>
       </c>
@@ -1015,7 +1009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.4">
+    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>17</v>
       </c>
@@ -1026,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>9</v>
       </c>
@@ -1039,19 +1033,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>11</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>13</v>
       </c>
@@ -1127,11 +1121,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BL27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" customWidth="1"/>
@@ -1139,17 +1133,17 @@
     <col min="4" max="1024" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15.6">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="15.6">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="15.6">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
@@ -1223,7 +1217,7 @@
       <c r="BK4" s="3"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" ht="15.6">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -1291,7 +1285,7 @@
       <c r="BK5" s="3"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" ht="15.6" customHeight="1">
+    <row r="6" spans="1:64" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
@@ -1303,7 +1297,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:64" ht="13.05" customHeight="1">
+    <row r="7" spans="1:64" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
@@ -1315,13 +1309,13 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:64" ht="14.55" customHeight="1">
+    <row r="8" spans="1:64" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:64">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1323,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:64">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
@@ -1341,7 +1335,7 @@
       </c>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:64">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>7</v>
       </c>
@@ -1349,13 +1343,11 @@
         <v>9</v>
       </c>
       <c r="C11" s="37">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:64">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1359,7 @@
       </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:64">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>20</v>
       </c>
@@ -1375,13 +1367,11 @@
         <v>12</v>
       </c>
       <c r="C13" s="37">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="27">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>17</v>
       </c>
@@ -1453,7 +1443,7 @@
       <c r="BK14" s="9"/>
       <c r="BL14" s="9"/>
     </row>
-    <row r="15" spans="1:64">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>9</v>
       </c>
@@ -1463,17 +1453,17 @@
       </c>
       <c r="C15" s="35">
         <f>SUM(C10:C14)</f>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:64">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:64">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
@@ -1481,7 +1471,7 @@
       <c r="C17" s="21"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:64">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>11</v>
       </c>
@@ -1493,7 +1483,7 @@
       </c>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:64">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>12</v>
       </c>
@@ -1505,7 +1495,7 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:64">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1507,7 @@
       </c>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:64">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1521,7 @@
       </c>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="15.6">
+    <row r="22" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1597,7 +1587,7 @@
       <c r="BK22" s="9"/>
       <c r="BL22" s="9"/>
     </row>
-    <row r="23" spans="1:64" ht="15.6">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>13</v>
       </c>
@@ -1607,7 +1597,7 @@
       </c>
       <c r="C23" s="31">
         <f>SUM(C7,C15,C21)</f>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
@@ -1671,7 +1661,7 @@
       <c r="BK23" s="6"/>
       <c r="BL23" s="6"/>
     </row>
-    <row r="24" spans="1:64">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1737,7 +1727,7 @@
       <c r="BK24" s="7"/>
       <c r="BL24" s="7"/>
     </row>
-    <row r="25" spans="1:64">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1803,7 +1793,7 @@
       <c r="BK25" s="7"/>
       <c r="BL25" s="7"/>
     </row>
-    <row r="26" spans="1:64">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1866,7 +1856,7 @@
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="15.6">
+    <row r="27" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>

--- a/Labs/Lab01-Validation/Lab1-Rubric-Validation.xlsx
+++ b/Labs/Lab01-Validation/Lab1-Rubric-Validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab01-Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4A67D5-CA6E-4611-B6EA-EE264EFE0C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07878424-6CDC-4C6D-A93E-33B9CB7DF15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32736" yWindow="4908" windowWidth="11688" windowHeight="10992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32040" yWindow="4560" windowWidth="14388" windowHeight="10992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BL27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,6 +1305,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="33">
+        <f>SUM(C6)</f>
         <v>5</v>
       </c>
       <c r="D7" s="10"/>

--- a/Labs/Lab01-Validation/Lab1-Rubric-Validation.xlsx
+++ b/Labs/Lab01-Validation/Lab1-Rubric-Validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\Labs\Lab01-Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07878424-6CDC-4C6D-A93E-33B9CB7DF15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD979BA-BB14-4004-908C-596E5C03BAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32040" yWindow="4560" windowWidth="14388" windowHeight="10992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16176" yWindow="5316" windowWidth="16116" windowHeight="11808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>CS296N Lab 1 Rubric</t>
   </si>
@@ -95,13 +95,19 @@
   </si>
   <si>
     <t>Validation is shown in the views for each validated model property.</t>
+  </si>
+  <si>
+    <t>Excellent work!</t>
+  </si>
+  <si>
+    <t>Here's the grade breakdown:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +263,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Serif"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -470,7 +483,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -483,7 +496,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -548,8 +560,35 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -586,9 +625,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -626,7 +665,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -732,7 +771,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -874,7 +913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -895,211 +934,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="40">
-        <v>5</v>
-      </c>
-      <c r="C6" s="41">
+      <c r="A6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39">
+        <v>5</v>
+      </c>
+      <c r="C6" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32">
-        <v>5</v>
-      </c>
-      <c r="C7" s="33">
+      <c r="B7" s="31">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>9</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>9</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="36">
-        <v>5</v>
-      </c>
-      <c r="C12" s="37">
+      <c r="B12" s="35">
+        <v>5</v>
+      </c>
+      <c r="C12" s="36">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>12</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="38">
-        <v>5</v>
-      </c>
-      <c r="C14" s="39">
+      <c r="B14" s="37">
+        <v>5</v>
+      </c>
+      <c r="C14" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <f>SUM(B10:B14)</f>
         <v>40</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <f>SUM(C10:C14)</f>
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>2</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>2</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="37">
         <v>1</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <f>SUM(B18:B20)</f>
         <v>5</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="32">
         <f>SUM(C18:C20)</f>
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="29">
         <f>SUM(B7,B15,B21)</f>
         <v>50</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="30">
         <f>SUM(C7,C15,C21)</f>
         <v>50</v>
       </c>
@@ -1119,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BL27"/>
+  <dimension ref="A1:BM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,612 +1169,514 @@
     <col min="1" max="1" width="45.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" customWidth="1"/>
     <col min="3" max="3" width="7.08984375" customWidth="1"/>
-    <col min="4" max="1024" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="1.26953125" customWidth="1"/>
+    <col min="5" max="1025" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+    </row>
+    <row r="6" spans="1:65" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+    </row>
+    <row r="7" spans="1:65" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B7" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:65" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-    </row>
-    <row r="6" spans="1:64" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="40">
-        <v>5</v>
-      </c>
-      <c r="C6" s="41">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:64" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:65" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="45">
+        <v>5</v>
+      </c>
+      <c r="C9" s="45">
+        <v>5</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32">
-        <v>5</v>
-      </c>
-      <c r="C7" s="33">
-        <f>SUM(C6)</f>
-        <v>5</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:64" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="B10" s="46">
+        <v>5</v>
+      </c>
+      <c r="C10" s="46">
+        <f>SUM(C9)</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B13" s="35">
         <v>9</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C13" s="35">
         <v>9</v>
       </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B14" s="35">
         <v>9</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C14" s="35">
         <v>9</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="36">
-        <v>5</v>
-      </c>
-      <c r="C12" s="37">
-        <v>5</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="B15" s="35">
+        <v>5</v>
+      </c>
+      <c r="C15" s="35">
+        <v>5</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="45"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="9"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B16" s="35">
         <v>12</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C16" s="35">
         <v>12</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:65" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="38">
-        <v>5</v>
-      </c>
-      <c r="C14" s="39">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="9"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="9"/>
-      <c r="BC14" s="9"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
-      <c r="BG14" s="9"/>
-      <c r="BH14" s="9"/>
-      <c r="BI14" s="9"/>
-      <c r="BJ14" s="9"/>
-      <c r="BK14" s="9"/>
-      <c r="BL14" s="9"/>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="B17" s="35">
+        <v>5</v>
+      </c>
+      <c r="C17" s="35">
+        <v>5</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="34">
-        <f>SUM(B10:B14)</f>
+      <c r="B18" s="47">
+        <f>SUM(B13:B17)</f>
         <v>40</v>
       </c>
-      <c r="C15" s="35">
-        <f>SUM(C10:C14)</f>
+      <c r="C18" s="47">
+        <f>SUM(C13:C17)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C21" s="35">
         <v>2</v>
       </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B22" s="35">
         <v>2</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C22" s="35">
         <v>2</v>
       </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="D22" s="35"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B23" s="35">
         <v>1</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C23" s="35">
         <v>1</v>
       </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="45"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="9"/>
+      <c r="BK23" s="9"/>
+      <c r="BL23" s="9"/>
+      <c r="BM23" s="9"/>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="32">
-        <f>SUM(B18:B20)</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="33">
-        <f>SUM(C18:C20)</f>
-        <v>5</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
-      <c r="BH22" s="9"/>
-      <c r="BI22" s="9"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
-      <c r="BL22" s="9"/>
-    </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="30">
-        <f>SUM(B7,B15,B21)</f>
-        <v>50</v>
-      </c>
-      <c r="C23" s="31">
-        <f>SUM(C7,C15,C21)</f>
-        <v>50</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-      <c r="BF23" s="6"/>
-      <c r="BG23" s="6"/>
-      <c r="BH23" s="6"/>
-      <c r="BI23" s="6"/>
-      <c r="BJ23" s="6"/>
-      <c r="BK23" s="6"/>
-      <c r="BL23" s="6"/>
-    </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
-      <c r="AS24" s="7"/>
-      <c r="AT24" s="7"/>
-      <c r="AU24" s="7"/>
-      <c r="AV24" s="7"/>
-      <c r="AW24" s="7"/>
-      <c r="AX24" s="7"/>
-      <c r="AY24" s="7"/>
-      <c r="AZ24" s="7"/>
-      <c r="BA24" s="7"/>
-      <c r="BB24" s="7"/>
-      <c r="BC24" s="7"/>
-      <c r="BD24" s="7"/>
-      <c r="BE24" s="7"/>
-      <c r="BF24" s="7"/>
-      <c r="BG24" s="7"/>
-      <c r="BH24" s="7"/>
-      <c r="BI24" s="7"/>
-      <c r="BJ24" s="7"/>
-      <c r="BK24" s="7"/>
-      <c r="BL24" s="7"/>
-    </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
+      <c r="B24" s="46">
+        <f>SUM(B21:B23)</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="46">
+        <f>SUM(C21:C23)</f>
+        <v>5</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="45"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
+      <c r="AY24" s="6"/>
+      <c r="AZ24" s="6"/>
+      <c r="BA24" s="6"/>
+      <c r="BB24" s="6"/>
+      <c r="BC24" s="6"/>
+      <c r="BD24" s="6"/>
+      <c r="BE24" s="6"/>
+      <c r="BF24" s="6"/>
+      <c r="BG24" s="6"/>
+      <c r="BH24" s="6"/>
+      <c r="BI24" s="6"/>
+      <c r="BJ24" s="6"/>
+      <c r="BK24" s="6"/>
+      <c r="BL24" s="6"/>
+      <c r="BM24" s="6"/>
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1793,12 +1734,24 @@
       <c r="BJ25" s="7"/>
       <c r="BK25" s="7"/>
       <c r="BL25" s="7"/>
-    </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="D26" s="7"/>
+      <c r="BM25" s="7"/>
+    </row>
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="48">
+        <f>SUM(B10,B18,B24)</f>
+        <v>50</v>
+      </c>
+      <c r="C26" s="48">
+        <f>SUM(C10,C18,C24)</f>
+        <v>50</v>
+      </c>
+      <c r="D26" s="48"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1856,72 +1809,162 @@
       <c r="BJ26" s="7"/>
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
-    </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="9"/>
-      <c r="AP27" s="9"/>
-      <c r="AQ27" s="9"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="9"/>
-      <c r="AT27" s="9"/>
-      <c r="AU27" s="9"/>
-      <c r="AV27" s="9"/>
-      <c r="AW27" s="9"/>
-      <c r="AX27" s="9"/>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="9"/>
-      <c r="BA27" s="9"/>
-      <c r="BB27" s="9"/>
-      <c r="BC27" s="9"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
-      <c r="BF27" s="9"/>
-      <c r="BG27" s="9"/>
-      <c r="BH27" s="9"/>
-      <c r="BI27" s="9"/>
-      <c r="BJ27" s="9"/>
-      <c r="BK27" s="9"/>
-      <c r="BL27" s="9"/>
+      <c r="BM26" s="7"/>
+    </row>
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7"/>
+      <c r="BC27" s="7"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="7"/>
+      <c r="BL27" s="7"/>
+      <c r="BM27" s="7"/>
+    </row>
+    <row r="28" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="9"/>
+      <c r="AQ28" s="9"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="9"/>
+      <c r="AV28" s="9"/>
+      <c r="AW28" s="9"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="9"/>
+      <c r="AZ28" s="9"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="9"/>
+      <c r="BD28" s="9"/>
+      <c r="BE28" s="9"/>
+      <c r="BF28" s="9"/>
+      <c r="BG28" s="9"/>
+      <c r="BH28" s="9"/>
+      <c r="BI28" s="9"/>
+      <c r="BJ28" s="9"/>
+      <c r="BK28" s="9"/>
+      <c r="BL28" s="9"/>
+      <c r="BM28" s="9"/>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
